--- a/KittingToolResources/SourceChecklists/TAP223-000G35-110RC Cableset (KittingTool).xlsx
+++ b/KittingToolResources/SourceChecklists/TAP223-000G35-110RC Cableset (KittingTool).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Work\KittingToolCLOSEDSOURCE\KittingTool\KittingToolResources\SourceChecklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Work\KittingSystemRepository\KittingToolResources\SourceChecklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EFDDA9-0052-48A7-9A04-F09124F3B5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D458398-3F4D-43A3-A25F-3DBF8E5AE640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D98BA409-80DC-4AE9-9263-A8BCDDA34721}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>210-003721-110RC</t>
   </si>
@@ -124,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -185,15 +185,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="2"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -214,9 +251,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8727F086-892D-4EA5-BDDC-995DADD57662}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,8 +611,8 @@
       <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -581,13 +622,11 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -605,7 +644,8 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="10"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -623,7 +663,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
